--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.4745754748642</v>
+        <v>127.6326872340346</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.0007703225396</v>
+        <v>174.6326734302917</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.4028020672363</v>
+        <v>157.9659761766499</v>
       </c>
       <c r="AD2" t="n">
-        <v>96474.57547486419</v>
+        <v>127632.6872340346</v>
       </c>
       <c r="AE2" t="n">
-        <v>132000.7703225396</v>
+        <v>174632.6734302917</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.116024085276881e-06</v>
+        <v>6.958342937639243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.922839506172839</v>
       </c>
       <c r="AH2" t="n">
-        <v>119402.8020672362</v>
+        <v>157965.9761766499</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.0719431600218</v>
+        <v>90.90091156918318</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.87552398746023</v>
+        <v>124.3746374740934</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.72529854026369</v>
+        <v>112.5044966344987</v>
       </c>
       <c r="AD3" t="n">
-        <v>70071.94316002181</v>
+        <v>90900.91156918318</v>
       </c>
       <c r="AE3" t="n">
-        <v>95875.52398746023</v>
+        <v>124374.6374740934</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.33933503443481e-06</v>
+        <v>9.026410793232763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.796296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>86725.2985402637</v>
+        <v>112504.4966344987</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.81774602293345</v>
+        <v>86.47612223150263</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.05474378256709</v>
+        <v>118.3204454943534</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.4600454286074</v>
+        <v>107.0281082401913</v>
       </c>
       <c r="AD4" t="n">
-        <v>65817.74602293345</v>
+        <v>86476.12223150262</v>
       </c>
       <c r="AE4" t="n">
-        <v>90054.74378256709</v>
+        <v>118320.4454943534</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.835003636081336e-06</v>
+        <v>9.864363157509224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>81460.04542860739</v>
+        <v>107028.1082401913</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.21535629884002</v>
+        <v>84.87373250740919</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.86228346961815</v>
+        <v>116.1279851814045</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.47683045078823</v>
+        <v>105.0448932623721</v>
       </c>
       <c r="AD5" t="n">
-        <v>64215.35629884002</v>
+        <v>84873.73250740919</v>
       </c>
       <c r="AE5" t="n">
-        <v>87862.28346961815</v>
+        <v>116127.9851814045</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.032157686789224e-06</v>
+        <v>1.019766186226593e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.36033950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>79476.83045078823</v>
+        <v>105044.8932623721</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.20492952268052</v>
+        <v>73.61950323581225</v>
       </c>
       <c r="AB6" t="n">
-        <v>86.47977297759411</v>
+        <v>100.7294521904591</v>
       </c>
       <c r="AC6" t="n">
-        <v>78.22626481975686</v>
+        <v>91.11597464810092</v>
       </c>
       <c r="AD6" t="n">
-        <v>63204.92952268052</v>
+        <v>73619.50323581224</v>
       </c>
       <c r="AE6" t="n">
-        <v>86479.77297759411</v>
+        <v>100729.4521904591</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.14207868522599e-06</v>
+        <v>1.038348876398565e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.298611111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>78226.26481975686</v>
+        <v>91115.97464810092</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.80918994202717</v>
+        <v>72.22376365515889</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.57006050766067</v>
+        <v>98.81973972052563</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.49881262765497</v>
+        <v>89.38852245599902</v>
       </c>
       <c r="AD7" t="n">
-        <v>61809.18994202717</v>
+        <v>72223.76365515889</v>
       </c>
       <c r="AE7" t="n">
-        <v>84570.06050766067</v>
+        <v>98819.73972052563</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.277733696674705e-06</v>
+        <v>1.061282029152603e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.229166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>76498.81262765497</v>
+        <v>89388.52245599902</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.17424469748142</v>
+        <v>71.58881841061316</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.70130041226641</v>
+        <v>97.95097962513135</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.71296577645241</v>
+        <v>88.60267560479645</v>
       </c>
       <c r="AD8" t="n">
-        <v>61174.24469748142</v>
+        <v>71588.81841061315</v>
       </c>
       <c r="AE8" t="n">
-        <v>83701.3004122664</v>
+        <v>97950.97962513135</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.281882649792958e-06</v>
+        <v>1.061983430262773e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.225308641975309</v>
       </c>
       <c r="AH8" t="n">
-        <v>75712.9657764524</v>
+        <v>88602.67560479644</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>60.51840533978291</v>
+        <v>70.93297905291465</v>
       </c>
       <c r="AB9" t="n">
-        <v>82.80395206947331</v>
+        <v>97.05363128233826</v>
       </c>
       <c r="AC9" t="n">
-        <v>74.90125910005889</v>
+        <v>87.79096892840295</v>
       </c>
       <c r="AD9" t="n">
-        <v>60518.40533978291</v>
+        <v>70932.97905291464</v>
       </c>
       <c r="AE9" t="n">
-        <v>82803.95206947331</v>
+        <v>97053.63128233826</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.347688197352091e-06</v>
+        <v>1.073108184579772e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.190586419753087</v>
       </c>
       <c r="AH9" t="n">
-        <v>74901.25910005889</v>
+        <v>87790.96892840294</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.41882579149498</v>
+        <v>102.5147101331944</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.7690735098516</v>
+        <v>140.2651490339973</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.0065514064891</v>
+        <v>126.8784400736035</v>
       </c>
       <c r="AD2" t="n">
-        <v>82418.82579149498</v>
+        <v>102514.7101331944</v>
       </c>
       <c r="AE2" t="n">
-        <v>112769.0735098516</v>
+        <v>140265.1490339973</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906229445262844e-06</v>
+        <v>8.496564033954963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102006.5514064891</v>
+        <v>126878.4400736035</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.89994057648214</v>
+        <v>84.08107626420212</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.43071776312874</v>
+        <v>115.0434379399237</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.08645276961975</v>
+        <v>104.0638536874463</v>
       </c>
       <c r="AD3" t="n">
-        <v>63899.94057648214</v>
+        <v>84081.07626420213</v>
       </c>
       <c r="AE3" t="n">
-        <v>87430.71776312873</v>
+        <v>115043.4379399237</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.878565289146008e-06</v>
+        <v>1.018044650464531e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.564814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>79086.45276961975</v>
+        <v>104063.8536874463</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.48241459971624</v>
+        <v>80.49295808684404</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.75470795111472</v>
+        <v>110.1340163530628</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.8567147712419</v>
+        <v>99.62298040641743</v>
       </c>
       <c r="AD4" t="n">
-        <v>60482.41459971624</v>
+        <v>80492.95808684404</v>
       </c>
       <c r="AE4" t="n">
-        <v>82754.70795111473</v>
+        <v>110134.0163530628</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.337052308564348e-06</v>
+        <v>1.097445020192172e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.306327160493828</v>
       </c>
       <c r="AH4" t="n">
-        <v>74856.7147712419</v>
+        <v>99622.98040641742</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.78855449021779</v>
+        <v>68.87921184262883</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.43709382146612</v>
+        <v>94.24357637941198</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.76029048133435</v>
+        <v>85.2491017214742</v>
       </c>
       <c r="AD5" t="n">
-        <v>58788.55449021779</v>
+        <v>68879.21184262884</v>
       </c>
       <c r="AE5" t="n">
-        <v>80437.09382146611</v>
+        <v>94243.57637941197</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.543341586053557e-06</v>
+        <v>1.133170011761772e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.202160493827161</v>
       </c>
       <c r="AH5" t="n">
-        <v>72760.29048133435</v>
+        <v>85249.1017214742</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.46588927520025</v>
+        <v>67.5565466276113</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.627364922409</v>
+        <v>92.43384748035484</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.1232795684322</v>
+        <v>83.61209080857205</v>
       </c>
       <c r="AD6" t="n">
-        <v>57465.88927520025</v>
+        <v>67556.5466276113</v>
       </c>
       <c r="AE6" t="n">
-        <v>78627.364922409</v>
+        <v>92433.84748035485</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.689433729105566e-06</v>
+        <v>1.158470117721912e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.132716049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>71123.27956843219</v>
+        <v>83612.09080857204</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.09205360346083</v>
+        <v>67.18271095587187</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.11586646386952</v>
+        <v>91.92234902181536</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.66059780488297</v>
+        <v>83.14940904502282</v>
       </c>
       <c r="AD7" t="n">
-        <v>57092.05360346082</v>
+        <v>67182.71095587187</v>
       </c>
       <c r="AE7" t="n">
-        <v>78115.86646386952</v>
+        <v>91922.34902181536</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.724421955258596e-06</v>
+        <v>1.164529347263872e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.117283950617284</v>
       </c>
       <c r="AH7" t="n">
-        <v>70660.59780488297</v>
+        <v>83149.40904502283</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.38389481617712</v>
+        <v>69.44403384101541</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.30571178491918</v>
+        <v>95.01639075579202</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.59583332686822</v>
+        <v>85.94815977842458</v>
       </c>
       <c r="AD2" t="n">
-        <v>51383.89481617712</v>
+        <v>69444.03384101541</v>
       </c>
       <c r="AE2" t="n">
-        <v>70305.71178491919</v>
+        <v>95016.39075579202</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.049523868928732e-06</v>
+        <v>1.333921614507745e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.317901234567901</v>
       </c>
       <c r="AH2" t="n">
-        <v>63595.83332686823</v>
+        <v>85948.15977842458</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.77575398700915</v>
+        <v>57.89120910827543</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.73713843940072</v>
+        <v>79.20930628180894</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.36783961292075</v>
+        <v>71.64968126125103</v>
       </c>
       <c r="AD3" t="n">
-        <v>48775.75398700915</v>
+        <v>57891.20910827543</v>
       </c>
       <c r="AE3" t="n">
-        <v>66737.13843940072</v>
+        <v>79209.30628180894</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.607020850419309e-06</v>
+        <v>1.439412040167671e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.074845679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>60367.83961292075</v>
+        <v>71649.68126125103</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.20362602921058</v>
+        <v>79.19688758715525</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.37325712966538</v>
+        <v>108.3606755167945</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.51166908082195</v>
+        <v>98.01888473066252</v>
       </c>
       <c r="AD2" t="n">
-        <v>60203.62602921058</v>
+        <v>79196.88758715524</v>
       </c>
       <c r="AE2" t="n">
-        <v>82373.25712966538</v>
+        <v>108360.6755167945</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.916729730931809e-06</v>
+        <v>1.077899660527969e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.780864197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>74511.66908082194</v>
+        <v>98018.88473066252</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.46304169058996</v>
+        <v>62.95976197811334</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.15049226397585</v>
+        <v>86.14432392708878</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.16911194967909</v>
+        <v>77.92283055582595</v>
       </c>
       <c r="AD3" t="n">
-        <v>53463.04169058996</v>
+        <v>62959.76197811334</v>
       </c>
       <c r="AE3" t="n">
-        <v>73150.49226397584</v>
+        <v>86144.32392708877</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.036592249061572e-06</v>
+        <v>1.281914290741603e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.179012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>66169.11194967909</v>
+        <v>77922.83055582596</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.73479496611584</v>
+        <v>61.2315152536392</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.78582885068714</v>
+        <v>83.77966051380005</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.03012869372796</v>
+        <v>75.78384729987482</v>
       </c>
       <c r="AD4" t="n">
-        <v>51734.79496611583</v>
+        <v>61231.51525363921</v>
       </c>
       <c r="AE4" t="n">
-        <v>70785.82885068713</v>
+        <v>83779.66051380006</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.317471330075735e-06</v>
+        <v>1.333084359317118e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.059413580246913</v>
       </c>
       <c r="AH4" t="n">
-        <v>64030.12869372796</v>
+        <v>75783.84729987482</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.79012005649214</v>
+        <v>55.59285953211038</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.02030649568218</v>
+        <v>76.06460299567436</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.91029829681226</v>
+        <v>68.80510404312534</v>
       </c>
       <c r="AD2" t="n">
-        <v>46790.12005649214</v>
+        <v>55592.85953211038</v>
       </c>
       <c r="AE2" t="n">
-        <v>64020.30649568218</v>
+        <v>76064.60299567436</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.679720070983294e-06</v>
+        <v>1.504977692972881e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.16358024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>57910.29829681227</v>
+        <v>68805.10404312534</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.42709425401186</v>
+        <v>55.22983372963009</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.52359857716083</v>
+        <v>75.567895077153</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.46099548490049</v>
+        <v>68.35580123121355</v>
       </c>
       <c r="AD3" t="n">
-        <v>46427.09425401186</v>
+        <v>55229.8337296301</v>
       </c>
       <c r="AE3" t="n">
-        <v>63523.59857716082</v>
+        <v>75567.89507715299</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.816916395013995e-06</v>
+        <v>1.531863752010922e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.105709876543211</v>
       </c>
       <c r="AH3" t="n">
-        <v>57460.99548490049</v>
+        <v>68355.80123121355</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.29793945668408</v>
+        <v>105.5641010906954</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7084038440918</v>
+        <v>144.4374602716825</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5699175825155</v>
+        <v>130.6525517826409</v>
       </c>
       <c r="AD2" t="n">
-        <v>85297.93945668408</v>
+        <v>105564.1010906954</v>
       </c>
       <c r="AE2" t="n">
-        <v>116708.4038440918</v>
+        <v>144437.4602716825</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.714900621118076e-06</v>
+        <v>8.111897912870348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.405864197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>105569.9175825155</v>
+        <v>130652.5517826409</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.79995679766047</v>
+        <v>85.15136977769237</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.66215966285768</v>
+        <v>116.5078607430976</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.20036758277851</v>
+        <v>105.3885140336161</v>
       </c>
       <c r="AD3" t="n">
-        <v>64799.95679766047</v>
+        <v>85151.36977769237</v>
       </c>
       <c r="AE3" t="n">
-        <v>88662.15966285768</v>
+        <v>116507.8607430976</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.800829941973739e-06</v>
+        <v>9.980218901846962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.580246913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>80200.3675827785</v>
+        <v>105388.5140336161</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.34995471129912</v>
+        <v>82.53077549073882</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.30995872183607</v>
+        <v>112.9222480272291</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.16809599472337</v>
+        <v>102.1451071629099</v>
       </c>
       <c r="AD4" t="n">
-        <v>62349.95471129912</v>
+        <v>82530.77549073882</v>
       </c>
       <c r="AE4" t="n">
-        <v>85309.95872183607</v>
+        <v>112922.2480272291</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.142615817762909e-06</v>
+        <v>1.056825507805915e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.383487654320988</v>
       </c>
       <c r="AH4" t="n">
-        <v>77168.09599472338</v>
+        <v>102145.1071629099</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.10152331929245</v>
+        <v>70.27731931785945</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.23355569750183</v>
+        <v>96.15652870717017</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.38530055727183</v>
+        <v>86.97948456391721</v>
       </c>
       <c r="AD5" t="n">
-        <v>60101.52331929246</v>
+        <v>70277.31931785945</v>
       </c>
       <c r="AE5" t="n">
-        <v>82233.55569750183</v>
+        <v>96156.52870717016</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.422860852968112e-06</v>
+        <v>1.105041139456583e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.233024691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>74385.30055727184</v>
+        <v>86979.48456391721</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.23354098069503</v>
+        <v>69.40933697926201</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.04594396915519</v>
+        <v>94.96891697882353</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.31103282545472</v>
+        <v>85.90521683210008</v>
       </c>
       <c r="AD6" t="n">
-        <v>59233.54098069503</v>
+        <v>69409.33697926201</v>
       </c>
       <c r="AE6" t="n">
-        <v>81045.9439691552</v>
+        <v>94968.91697882353</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.479771324094316e-06</v>
+        <v>1.114832479063645e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.206018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>73311.03282545472</v>
+        <v>85905.21683210008</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.0525899151727</v>
+        <v>68.2283859137397</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.43011462142438</v>
+        <v>93.35308763109271</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.84941596284008</v>
+        <v>84.44359996948546</v>
       </c>
       <c r="AD7" t="n">
-        <v>58052.58991517271</v>
+        <v>68228.38591373969</v>
       </c>
       <c r="AE7" t="n">
-        <v>79430.11462142438</v>
+        <v>93353.08763109271</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.609475510416955e-06</v>
+        <v>1.13714784057113e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.14429012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>71849.41596284008</v>
+        <v>84443.59996948545</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.98042795982323</v>
+        <v>68.15622395839021</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.33137945055449</v>
+        <v>93.25435246022283</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.7601039381023</v>
+        <v>84.35428794474767</v>
       </c>
       <c r="AD8" t="n">
-        <v>57980.42795982323</v>
+        <v>68156.22395839021</v>
       </c>
       <c r="AE8" t="n">
-        <v>79331.37945055449</v>
+        <v>93254.35246022283</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.621212958577327e-06</v>
+        <v>1.139167246469275e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.136574074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>71760.1039381023</v>
+        <v>84354.28794474767</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.00367683376369</v>
+        <v>53.62124182523589</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.57601606603364</v>
+        <v>73.36694866749566</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.69928751518545</v>
+        <v>66.36491005784552</v>
       </c>
       <c r="AD2" t="n">
-        <v>45003.67683376369</v>
+        <v>53621.24182523589</v>
       </c>
       <c r="AE2" t="n">
-        <v>61576.01606603364</v>
+        <v>73366.94866749566</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.866180368809788e-06</v>
+        <v>1.576902010058998e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.159722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>55699.28751518545</v>
+        <v>66364.91005784553</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.08695151537671</v>
+        <v>95.63020365798576</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1055237826929</v>
+        <v>130.8454635516316</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.16983870591925</v>
+        <v>118.3577561530601</v>
       </c>
       <c r="AD2" t="n">
-        <v>76086.95151537671</v>
+        <v>95630.20365798577</v>
       </c>
       <c r="AE2" t="n">
-        <v>104105.5237826929</v>
+        <v>130845.4635516316</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.375288799012405e-06</v>
+        <v>9.520035884097538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>94169.83870591925</v>
+        <v>118357.7561530601</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.89651792666111</v>
+        <v>78.35442921469854</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.58481415821845</v>
+        <v>107.2079868049595</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.89391259647387</v>
+        <v>96.97620701167594</v>
       </c>
       <c r="AD3" t="n">
-        <v>58896.51792666111</v>
+        <v>78354.42921469854</v>
       </c>
       <c r="AE3" t="n">
-        <v>80584.81415821845</v>
+        <v>107207.9868049595</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.379894831376671e-06</v>
+        <v>1.129926781657451e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.383487654320988</v>
       </c>
       <c r="AH3" t="n">
-        <v>72893.91259647386</v>
+        <v>96976.20701167594</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.40746633668419</v>
+        <v>66.22180758955004</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.17918396360751</v>
+        <v>90.60759864394987</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.81331096780353</v>
+        <v>81.96013659795665</v>
       </c>
       <c r="AD4" t="n">
-        <v>56407.46633668419</v>
+        <v>66221.80758955004</v>
       </c>
       <c r="AE4" t="n">
-        <v>77179.18396360752</v>
+        <v>90607.59864394987</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.755663499970935e-06</v>
+        <v>1.196478205085979e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.198302469135802</v>
       </c>
       <c r="AH4" t="n">
-        <v>69813.31096780353</v>
+        <v>81960.13659795665</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.41294387552954</v>
+        <v>64.22728512839541</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.45019034013629</v>
+        <v>87.87860502047863</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.34476866558892</v>
+        <v>79.49159429574203</v>
       </c>
       <c r="AD5" t="n">
-        <v>54412.94387552954</v>
+        <v>64227.28512839541</v>
       </c>
       <c r="AE5" t="n">
-        <v>74450.19034013629</v>
+        <v>87878.60502047863</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.023621881702018e-06</v>
+        <v>1.243935625606217e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.074845679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>67344.76866558891</v>
+        <v>79491.59429574203</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.58940302325766</v>
+        <v>64.40374427612353</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.69162953088596</v>
+        <v>88.1200442112283</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.56316523883554</v>
+        <v>79.70999086898867</v>
       </c>
       <c r="AD6" t="n">
-        <v>54589.40302325766</v>
+        <v>64403.74427612353</v>
       </c>
       <c r="AE6" t="n">
-        <v>74691.62953088596</v>
+        <v>88120.04421122831</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.986845475435606e-06</v>
+        <v>1.237422250782362e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.090277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>67563.16523883554</v>
+        <v>79709.99086898867</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.79426240925508</v>
+        <v>99.71339445088552</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.1780301027083</v>
+        <v>136.4322653321385</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.75823214206129</v>
+        <v>123.4113614127628</v>
       </c>
       <c r="AD2" t="n">
-        <v>79794.26240925508</v>
+        <v>99713.39445088552</v>
       </c>
       <c r="AE2" t="n">
-        <v>109178.0301027083</v>
+        <v>136432.2653321385</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.096142329980945e-06</v>
+        <v>8.887227232393217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.151234567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>98758.23214206129</v>
+        <v>123411.3614127628</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.39985493000568</v>
+        <v>82.40423831765669</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.37823440251263</v>
+        <v>112.7491142845922</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.22985554026171</v>
+        <v>101.9884970616755</v>
       </c>
       <c r="AD3" t="n">
-        <v>62399.85493000568</v>
+        <v>82404.23831765669</v>
       </c>
       <c r="AE3" t="n">
-        <v>85378.23440251264</v>
+        <v>112749.1142845922</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.018919345219428e-06</v>
+        <v>1.049646977081436e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.51466049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>77229.85554026171</v>
+        <v>101988.4970616755</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.26745559796989</v>
+        <v>69.26973680034644</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.09234744471796</v>
+        <v>94.77790985530612</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.35300761843746</v>
+        <v>85.73243916037092</v>
       </c>
       <c r="AD4" t="n">
-        <v>59267.45559796989</v>
+        <v>69269.73680034644</v>
       </c>
       <c r="AE4" t="n">
-        <v>81092.34744471796</v>
+        <v>94777.90985530612</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.447153694995481e-06</v>
+        <v>1.12432730837411e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.283179012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>73353.00761843746</v>
+        <v>85732.43916037092</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.6538339834927</v>
+        <v>67.65611518586924</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.88451916382994</v>
+        <v>92.57008157441808</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.35589136997024</v>
+        <v>83.73532291190369</v>
       </c>
       <c r="AD5" t="n">
-        <v>57653.8339834927</v>
+        <v>67656.11518586925</v>
       </c>
       <c r="AE5" t="n">
-        <v>78884.51916382993</v>
+        <v>92570.08157441809</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.654250634641275e-06</v>
+        <v>1.160443206294337e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.179012345679013</v>
       </c>
       <c r="AH5" t="n">
-        <v>71355.89136997024</v>
+        <v>83735.3229119037</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.3979176286118</v>
+        <v>66.40019883098834</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.16611899996362</v>
+        <v>90.85168141055178</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.801492905953</v>
+        <v>82.18092444788644</v>
       </c>
       <c r="AD6" t="n">
-        <v>56397.9176286118</v>
+        <v>66400.19883098835</v>
       </c>
       <c r="AE6" t="n">
-        <v>77166.11899996361</v>
+        <v>90851.68141055177</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.784783133676496e-06</v>
+        <v>1.183206934326684e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.117283950617284</v>
       </c>
       <c r="AH6" t="n">
-        <v>69801.492905953</v>
+        <v>82180.92444788644</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.32257842757402</v>
+        <v>66.32485962995055</v>
       </c>
       <c r="AB7" t="n">
-        <v>77.06303658137278</v>
+        <v>90.74859899196096</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.70824852871537</v>
+        <v>82.08768007064882</v>
       </c>
       <c r="AD7" t="n">
-        <v>56322.57842757402</v>
+        <v>66324.85962995056</v>
       </c>
       <c r="AE7" t="n">
-        <v>77063.03658137278</v>
+        <v>90748.59899196096</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.800907736498495e-06</v>
+        <v>1.186018924260091e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.109567901234568</v>
       </c>
       <c r="AH7" t="n">
-        <v>69708.24852871537</v>
+        <v>82087.68007064881</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.43445793063663</v>
+        <v>123.3613930476127</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.4729032611235</v>
+        <v>168.7885002882317</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.4025068797498</v>
+        <v>152.6795627169178</v>
       </c>
       <c r="AD2" t="n">
-        <v>92434.45793063662</v>
+        <v>123361.3930476127</v>
       </c>
       <c r="AE2" t="n">
-        <v>126472.9032611235</v>
+        <v>168788.5002882317</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.310918706609281e-06</v>
+        <v>7.328276089154758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>114402.5068797498</v>
+        <v>152679.5627169177</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.72714267408074</v>
+        <v>88.40199332177919</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.66726451730062</v>
+        <v>120.9555072835045</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.82323085111467</v>
+        <v>109.4116834305191</v>
       </c>
       <c r="AD3" t="n">
-        <v>67727.14267408074</v>
+        <v>88401.99332177918</v>
       </c>
       <c r="AE3" t="n">
-        <v>92667.26451730062</v>
+        <v>120955.5072835045</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.54183838003503e-06</v>
+        <v>9.420757953080026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.684413580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>83823.23085111467</v>
+        <v>109411.6834305191</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.39598871687146</v>
+        <v>84.90024716397771</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.10943271290851</v>
+        <v>116.1642637042656</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.70039211717517</v>
+        <v>105.0777094139286</v>
       </c>
       <c r="AD4" t="n">
-        <v>64395.98871687146</v>
+        <v>84900.24716397771</v>
       </c>
       <c r="AE4" t="n">
-        <v>88109.43271290851</v>
+        <v>116164.2637042656</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.965979461382316e-06</v>
+        <v>1.014176968083545e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.422067901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>79700.39211717517</v>
+        <v>105077.7094139286</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.47885172476934</v>
+        <v>83.98311017187558</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.85456541908654</v>
+        <v>114.9093964104436</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.56528759665785</v>
+        <v>103.9426048934113</v>
       </c>
       <c r="AD5" t="n">
-        <v>63478.85172476935</v>
+        <v>83983.11017187558</v>
       </c>
       <c r="AE5" t="n">
-        <v>86854.56541908655</v>
+        <v>114909.3964104436</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.072649990453057e-06</v>
+        <v>1.032310251051933e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.364197530864198</v>
       </c>
       <c r="AH5" t="n">
-        <v>78565.28759665786</v>
+        <v>103942.6048934113</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.9414336303078</v>
+        <v>72.27894846270806</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.7510021561459</v>
+        <v>98.89524600879622</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.66248545916204</v>
+        <v>89.45682253009083</v>
       </c>
       <c r="AD6" t="n">
-        <v>61941.4336303078</v>
+        <v>72278.94846270805</v>
       </c>
       <c r="AE6" t="n">
-        <v>84751.0021561459</v>
+        <v>98895.24600879622</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.240675925574911e-06</v>
+        <v>1.060873546407596e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.271604938271605</v>
       </c>
       <c r="AH6" t="n">
-        <v>76662.48545916204</v>
+        <v>89456.82253009084</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.84235613043396</v>
+        <v>71.17987096283422</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.24719583294207</v>
+        <v>97.3914396855924</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.30220030083888</v>
+        <v>88.09653737176768</v>
       </c>
       <c r="AD7" t="n">
-        <v>60842.35613043395</v>
+        <v>71179.87096283422</v>
       </c>
       <c r="AE7" t="n">
-        <v>83247.19583294207</v>
+        <v>97391.4396855924</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.340729176167319e-06</v>
+        <v>1.077881935891592e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.221450617283951</v>
       </c>
       <c r="AH7" t="n">
-        <v>75302.20030083887</v>
+        <v>88096.53737176768</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.65341197607322</v>
+        <v>69.99092680847347</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.62042998843235</v>
+        <v>95.76467384108268</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.83069070534845</v>
+        <v>86.62502777627725</v>
       </c>
       <c r="AD8" t="n">
-        <v>59653.41197607322</v>
+        <v>69990.92680847348</v>
       </c>
       <c r="AE8" t="n">
-        <v>81620.42998843236</v>
+        <v>95764.67384108268</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.44978192549026e-06</v>
+        <v>1.09642018051436e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.167438271604939</v>
       </c>
       <c r="AH8" t="n">
-        <v>73830.69070534845</v>
+        <v>86625.02777627725</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>59.71894961520132</v>
+        <v>70.05646444760158</v>
       </c>
       <c r="AB9" t="n">
-        <v>81.71010147760396</v>
+        <v>95.85434533025429</v>
       </c>
       <c r="AC9" t="n">
-        <v>73.91180407344825</v>
+        <v>86.70614114437706</v>
       </c>
       <c r="AD9" t="n">
-        <v>59718.94961520132</v>
+        <v>70056.46444760158</v>
       </c>
       <c r="AE9" t="n">
-        <v>81710.10147760395</v>
+        <v>95854.34533025429</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.451317134097233e-06</v>
+        <v>1.096681155802739e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.167438271604939</v>
       </c>
       <c r="AH9" t="n">
-        <v>73911.80407344825</v>
+        <v>86706.14114437706</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.31059225840804</v>
+        <v>82.52688498071575</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.62434539412736</v>
+        <v>112.9169248597784</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.35703944776486</v>
+        <v>102.1402920310896</v>
       </c>
       <c r="AD2" t="n">
-        <v>63310.59225840803</v>
+        <v>82526.88498071575</v>
       </c>
       <c r="AE2" t="n">
-        <v>86624.34539412736</v>
+        <v>112916.9248597784</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.607009047474035e-06</v>
+        <v>1.011076415489409e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.939043209876544</v>
       </c>
       <c r="AH2" t="n">
-        <v>78357.03944776487</v>
+        <v>102140.2920310896</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.69152133898839</v>
+        <v>64.29975720869329</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.83135231561081</v>
+        <v>87.9777645179847</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.68955307708845</v>
+        <v>79.58129014997739</v>
       </c>
       <c r="AD3" t="n">
-        <v>54691.52133898839</v>
+        <v>64299.7572086933</v>
       </c>
       <c r="AE3" t="n">
-        <v>74831.35231561081</v>
+        <v>87977.7645179847</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.918860055527315e-06</v>
+        <v>1.247634195876123e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.194444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>67689.55307708845</v>
+        <v>79581.29014997739</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.81570309261068</v>
+        <v>62.42393896231559</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.26477503565766</v>
+        <v>85.41118723803154</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.36792633051938</v>
+        <v>77.25966340340831</v>
       </c>
       <c r="AD4" t="n">
-        <v>52815.70309261068</v>
+        <v>62423.93896231559</v>
       </c>
       <c r="AE4" t="n">
-        <v>72264.77503565766</v>
+        <v>85411.18723803155</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.206418071393704e-06</v>
+        <v>1.299487710908066e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.06712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>65367.92633051937</v>
+        <v>77259.66340340831</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.60509273869547</v>
+        <v>62.21332860840037</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.97660865795795</v>
+        <v>85.12302086033185</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.10726214746319</v>
+        <v>76.99899922035212</v>
       </c>
       <c r="AD5" t="n">
-        <v>52605.09273869547</v>
+        <v>62213.32860840038</v>
       </c>
       <c r="AE5" t="n">
-        <v>71976.60865795796</v>
+        <v>85123.02086033185</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.236256296103201e-06</v>
+        <v>1.304868248914766e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.051697530864198</v>
       </c>
       <c r="AH5" t="n">
-        <v>65107.26214746319</v>
+        <v>76998.99922035213</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.04711610252352</v>
+        <v>72.37996490088355</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.94964864192741</v>
+        <v>99.03346115603861</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.89199796454224</v>
+        <v>89.58184661766663</v>
       </c>
       <c r="AD2" t="n">
-        <v>54047.11610252352</v>
+        <v>72379.96490088355</v>
       </c>
       <c r="AE2" t="n">
-        <v>73949.64864192742</v>
+        <v>99033.46115603861</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.670599425293388e-06</v>
+        <v>1.244520631893379e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.449074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>66891.99796454224</v>
+        <v>89581.84661766663</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.81778005473475</v>
+        <v>59.06959006276191</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.16288447620781</v>
+        <v>80.82161909023523</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.65751444902256</v>
+        <v>73.10811719813684</v>
       </c>
       <c r="AD3" t="n">
-        <v>49817.78005473475</v>
+        <v>59069.59006276191</v>
       </c>
       <c r="AE3" t="n">
-        <v>68162.88447620781</v>
+        <v>80821.61909023522</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.523522199370386e-06</v>
+        <v>1.403648758479076e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.059413580246913</v>
       </c>
       <c r="AH3" t="n">
-        <v>61657.51444902256</v>
+        <v>73108.11719813684</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.91492259018335</v>
+        <v>59.16673259821051</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.29579917883471</v>
+        <v>80.95453379286212</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.77774395897775</v>
+        <v>73.22834670809203</v>
       </c>
       <c r="AD4" t="n">
-        <v>49914.92259018335</v>
+        <v>59166.73259821051</v>
       </c>
       <c r="AE4" t="n">
-        <v>68295.79917883471</v>
+        <v>80954.53379286212</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.503059688948031e-06</v>
+        <v>1.39983110810355e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.06712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>61777.74395897775</v>
+        <v>73228.34670809204</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.7903306478976</v>
+        <v>57.75724280294123</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.75708286990519</v>
+        <v>79.02600767267448</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.38588057497007</v>
+        <v>71.48387641411109</v>
       </c>
       <c r="AD2" t="n">
-        <v>48790.3306478976</v>
+        <v>57757.24280294123</v>
       </c>
       <c r="AE2" t="n">
-        <v>66757.08286990519</v>
+        <v>79026.00767267449</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.448253403800217e-06</v>
+        <v>1.432326750361551e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.198302469135802</v>
       </c>
       <c r="AH2" t="n">
-        <v>60385.88057497007</v>
+        <v>71483.87641411109</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.5595775111578</v>
+        <v>56.52648966620142</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.07311213122233</v>
+        <v>77.34203693399164</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.86262564011879</v>
+        <v>69.9606214792598</v>
       </c>
       <c r="AD3" t="n">
-        <v>47559.5775111578</v>
+        <v>56526.48966620142</v>
       </c>
       <c r="AE3" t="n">
-        <v>65073.11213122233</v>
+        <v>77342.03693399164</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.751263745932745e-06</v>
+        <v>1.490596762825304e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.070987654320988</v>
       </c>
       <c r="AH3" t="n">
-        <v>58862.62564011879</v>
+        <v>69960.6214792598</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.50574726400725</v>
+        <v>51.90790352266081</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.52648274470527</v>
+        <v>71.02268361476237</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.84535877750592</v>
+        <v>64.2443783715477</v>
       </c>
       <c r="AD2" t="n">
-        <v>43505.74726400724</v>
+        <v>51907.90352266081</v>
       </c>
       <c r="AE2" t="n">
-        <v>59526.48274470527</v>
+        <v>71022.68361476237</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.835809655580184e-06</v>
+        <v>1.616213567792731e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.26003086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>53845.35877750592</v>
+        <v>64244.3783715477</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.79005227970067</v>
+        <v>97.5252528740546</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.4357813839427</v>
+        <v>133.4383534927266</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.2776997922436</v>
+        <v>120.7031843173218</v>
       </c>
       <c r="AD2" t="n">
-        <v>77790.05227970067</v>
+        <v>97525.2528740546</v>
       </c>
       <c r="AE2" t="n">
-        <v>106435.7813839427</v>
+        <v>133438.3534927266</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.245671608433025e-06</v>
+        <v>9.216438085939676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>96277.6997922436</v>
+        <v>120703.1843173218</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.5365101259201</v>
+        <v>80.1863698657024</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.82872383659301</v>
+        <v>109.7145288231793</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.9236666844921</v>
+        <v>99.24352817763145</v>
       </c>
       <c r="AD3" t="n">
-        <v>60536.5101259201</v>
+        <v>80186.36986570241</v>
       </c>
       <c r="AE3" t="n">
-        <v>82828.72383659301</v>
+        <v>109714.5288231793</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.204969393149264e-06</v>
+        <v>1.090188645152224e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.445216049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>74923.6666844921</v>
+        <v>99243.52817763145</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.46248284511833</v>
+        <v>67.37279832385664</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.62270409448983</v>
+        <v>92.18243494475479</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.1190635633881</v>
+        <v>83.38467273250987</v>
       </c>
       <c r="AD4" t="n">
-        <v>57462.48284511833</v>
+        <v>67372.79832385664</v>
       </c>
       <c r="AE4" t="n">
-        <v>78622.70409448983</v>
+        <v>92182.43494475479</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.656035443556027e-06</v>
+        <v>1.169439170853453e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.209876543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>71119.0635633881</v>
+        <v>83384.67273250988</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.84016195235849</v>
+        <v>65.7504774310968</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.40297307727043</v>
+        <v>89.96270392753539</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.11118055903938</v>
+        <v>81.37678972816116</v>
       </c>
       <c r="AD5" t="n">
-        <v>55840.1619523585</v>
+        <v>65750.47743109679</v>
       </c>
       <c r="AE5" t="n">
-        <v>76402.97307727044</v>
+        <v>89962.70392753539</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.869520468518286e-06</v>
+        <v>1.206947647588383e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.109567901234568</v>
       </c>
       <c r="AH5" t="n">
-        <v>69111.18055903938</v>
+        <v>81376.78972816115</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.43249676926906</v>
+        <v>65.34281224800736</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.84518758884917</v>
+        <v>89.40491843911414</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.60662933477602</v>
+        <v>80.87223850389779</v>
       </c>
       <c r="AD6" t="n">
-        <v>55432.49676926906</v>
+        <v>65342.81224800736</v>
       </c>
       <c r="AE6" t="n">
-        <v>75845.18758884918</v>
+        <v>89404.91843911415</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.894447365568887e-06</v>
+        <v>1.211327205069109e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.097993827160494</v>
       </c>
       <c r="AH6" t="n">
-        <v>68606.62933477602</v>
+        <v>80872.2385038978</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.47862324626639</v>
+        <v>109.0797776456688</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.0603557268615</v>
+        <v>149.2477640348979</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.5065252855979</v>
+        <v>135.0037669060003</v>
       </c>
       <c r="AD2" t="n">
-        <v>88478.62324626639</v>
+        <v>109079.7776456688</v>
       </c>
       <c r="AE2" t="n">
-        <v>121060.3557268615</v>
+        <v>149247.7640348979</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.524793625965012e-06</v>
+        <v>7.736892846559251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.55246913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>109506.5252855979</v>
+        <v>135003.7669060003</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.15927682173903</v>
+        <v>86.67509036656988</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.52204128876809</v>
+        <v>118.5926824746068</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.8827447166729</v>
+        <v>107.2743633051365</v>
       </c>
       <c r="AD3" t="n">
-        <v>66159.27682173903</v>
+        <v>86675.09036656987</v>
       </c>
       <c r="AE3" t="n">
-        <v>90522.04128876809</v>
+        <v>118592.6824746068</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.678731298271916e-06</v>
+        <v>9.709997668625573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.626543209876544</v>
       </c>
       <c r="AH3" t="n">
-        <v>81882.7447166729</v>
+        <v>107274.3633051365</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.88776042623304</v>
+        <v>84.23298177047167</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.41405234420762</v>
+        <v>115.2512817551995</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.07137787489039</v>
+        <v>104.2518611807029</v>
       </c>
       <c r="AD4" t="n">
-        <v>63887.76042623304</v>
+        <v>84232.98177047167</v>
       </c>
       <c r="AE4" t="n">
-        <v>87414.05234420762</v>
+        <v>115251.2817551995</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.991422892516242e-06</v>
+        <v>1.024466544768305e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>79071.37787489039</v>
+        <v>104251.8611807029</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.80477382550636</v>
+        <v>72.06277010647283</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.56401818221158</v>
+        <v>98.59946124467935</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.4933469732663</v>
+        <v>89.18926704872466</v>
       </c>
       <c r="AD5" t="n">
-        <v>61804.77382550636</v>
+        <v>72062.77010647283</v>
       </c>
       <c r="AE5" t="n">
-        <v>84564.01818221158</v>
+        <v>98599.46124467935</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.247800107803968e-06</v>
+        <v>1.068304191453403e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.294753086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>76493.34697326629</v>
+        <v>89189.26704872467</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.17267702757621</v>
+        <v>70.43067330854268</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.33091134025567</v>
+        <v>96.36635440272343</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.47336471412081</v>
+        <v>87.16928478957917</v>
       </c>
       <c r="AD6" t="n">
-        <v>60172.67702757621</v>
+        <v>70430.67330854268</v>
       </c>
       <c r="AE6" t="n">
-        <v>82330.91134025567</v>
+        <v>96366.35440272343</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.43158248386802e-06</v>
+        <v>1.099728929645531e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.202160493827161</v>
       </c>
       <c r="AH6" t="n">
-        <v>74473.36471412081</v>
+        <v>87169.28478957916</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.10712294031534</v>
+        <v>69.36511922128182</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.87297322913749</v>
+        <v>94.90841629160523</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.15457017009827</v>
+        <v>85.85049024555663</v>
       </c>
       <c r="AD7" t="n">
-        <v>59107.12294031533</v>
+        <v>69365.11922128181</v>
       </c>
       <c r="AE7" t="n">
-        <v>80872.97322913748</v>
+        <v>94908.41629160523</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.512878028086885e-06</v>
+        <v>1.113629561729938e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.16358024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>73154.57017009826</v>
+        <v>85850.49024555663</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.6608079001142</v>
+        <v>68.91880418108067</v>
       </c>
       <c r="AB8" t="n">
-        <v>80.26230530110467</v>
+        <v>94.29774836357242</v>
       </c>
       <c r="AC8" t="n">
-        <v>72.60218353203891</v>
+        <v>85.29810360749727</v>
       </c>
       <c r="AD8" t="n">
-        <v>58660.8079001142</v>
+        <v>68918.80418108068</v>
       </c>
       <c r="AE8" t="n">
-        <v>80262.30530110467</v>
+        <v>94297.74836357242</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.549068690582216e-06</v>
+        <v>1.119817761699227e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.14429012345679</v>
       </c>
       <c r="AH8" t="n">
-        <v>72602.18353203891</v>
+        <v>85298.10360749727</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.79755194411268</v>
+        <v>58.07340887761039</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.18925454760541</v>
+        <v>79.45860004429943</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.73119235931795</v>
+        <v>71.87518277693547</v>
       </c>
       <c r="AD2" t="n">
-        <v>41797.55194411268</v>
+        <v>58073.40887761039</v>
       </c>
       <c r="AE2" t="n">
-        <v>57189.25454760541</v>
+        <v>79458.60004429943</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.48758116737271e-06</v>
+        <v>1.604933515014451e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.533950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>51731.19235931795</v>
+        <v>71875.18277693547</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.72268196649322</v>
+        <v>75.47916991665177</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.61047589464414</v>
+        <v>103.2739301858861</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.20344100226419</v>
+        <v>93.41761123484248</v>
       </c>
       <c r="AD2" t="n">
-        <v>56722.68196649322</v>
+        <v>75479.16991665176</v>
       </c>
       <c r="AE2" t="n">
-        <v>77610.47589464414</v>
+        <v>103273.9301858861</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.326754667340507e-06</v>
+        <v>1.16566186407294e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.584104938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>70203.44100226418</v>
+        <v>93417.61123484248</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.44040391644052</v>
+        <v>60.81873740007084</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.38303002890508</v>
+        <v>83.21487964407441</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.66577242616496</v>
+        <v>75.27296832368069</v>
       </c>
       <c r="AD3" t="n">
-        <v>51440.40391644052</v>
+        <v>60818.73740007084</v>
       </c>
       <c r="AE3" t="n">
-        <v>70383.03002890508</v>
+        <v>83214.87964407442</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.315743644934535e-06</v>
+        <v>1.347876410990791e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.101851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>63665.77242616496</v>
+        <v>75272.96832368069</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.82961123206742</v>
+        <v>60.20794471569774</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.54731653187477</v>
+        <v>82.3791661470441</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.90981825235969</v>
+        <v>74.51701414987542</v>
       </c>
       <c r="AD4" t="n">
-        <v>50829.61123206742</v>
+        <v>60207.94471569774</v>
       </c>
       <c r="AE4" t="n">
-        <v>69547.31653187476</v>
+        <v>82379.1661470441</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.415977028207305e-06</v>
+        <v>1.366343735635321e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.059413580246913</v>
       </c>
       <c r="AH4" t="n">
-        <v>62909.81825235969</v>
+        <v>74517.01414987542</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.05452265829042</v>
+        <v>94.39679979407434</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6929090728816</v>
+        <v>129.1578659710907</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.89204196139465</v>
+        <v>116.8312205170474</v>
       </c>
       <c r="AD2" t="n">
-        <v>75054.52265829043</v>
+        <v>94396.79979407434</v>
       </c>
       <c r="AE2" t="n">
-        <v>102692.9090728816</v>
+        <v>129157.8659710907</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.439557859915139e-06</v>
+        <v>9.717373147158692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>92892.04196139466</v>
+        <v>116831.2205170474</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.87299296560496</v>
+        <v>66.58684671505826</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.81613803488203</v>
+        <v>91.10706127985958</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.38947503648643</v>
+        <v>82.4119312208955</v>
       </c>
       <c r="AD3" t="n">
-        <v>56872.99296560496</v>
+        <v>66586.84671505826</v>
       </c>
       <c r="AE3" t="n">
-        <v>77816.13803488202</v>
+        <v>91107.06127985958</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.632406118566733e-06</v>
+        <v>1.184830950922486e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.290895061728395</v>
       </c>
       <c r="AH3" t="n">
-        <v>70389.47503648643</v>
+        <v>82411.93122089549</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.49098693452114</v>
+        <v>64.20484068397442</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.55697229646532</v>
+        <v>87.84789554144288</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.44135950187534</v>
+        <v>79.46381568628441</v>
       </c>
       <c r="AD4" t="n">
-        <v>54490.98693452114</v>
+        <v>64204.84068397443</v>
       </c>
       <c r="AE4" t="n">
-        <v>74556.97229646532</v>
+        <v>87847.89554144288</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.995099909382365e-06</v>
+        <v>1.249623549774776e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.121141975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>67441.35950187534</v>
+        <v>79463.8156862844</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.56061268391544</v>
+        <v>63.27446643336872</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.28399320157213</v>
+        <v>86.57491644654969</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.28987174516097</v>
+        <v>78.31232792957003</v>
       </c>
       <c r="AD5" t="n">
-        <v>53560.61268391544</v>
+        <v>63274.46643336873</v>
       </c>
       <c r="AE5" t="n">
-        <v>73283.99320157213</v>
+        <v>86574.91644654969</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.120242851250866e-06</v>
+        <v>1.271979423067912e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.06712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>66289.87174516097</v>
+        <v>78312.32792957003</v>
       </c>
     </row>
   </sheetData>
